--- a/WorkBot/refactor/data/orders/Hillcrest Dairy/Hillcrest Dairy_Collegetown_2025-08-08.xlsx
+++ b/WorkBot/refactor/data/orders/Hillcrest Dairy/Hillcrest Dairy_Collegetown_2025-08-08.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,33 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>twog</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Milk - 2%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>225.12</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
